--- a/CPU/微指令自动生成.xlsx
+++ b/CPU/微指令自动生成.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="53">
   <si>
     <t>IorD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,48 +157,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修改蓝色区域的值，生成最终的微程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微指令功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R型运算1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R型运算2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微指令地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0000</t>
-  </si>
-  <si>
-    <t>修改蓝色区域的值，生成最终的微程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微指令功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R型运算1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R型运算2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微指令地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -337,19 +368,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -456,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -504,44 +522,91 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -976,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1007,63 +1072,63 @@
     <row r="1" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="U2" s="6" t="s">
@@ -1084,53 +1149,53 @@
         <f>TEXT(DEC2BIN(B3),"0000")</f>
         <v>0000</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>38</v>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="T3" s="2" t="str">
         <f>D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3</f>
@@ -1156,65 +1221,65 @@
         <f t="shared" ref="C4:C16" si="0">TEXT(DEC2BIN(B4),"0000")</f>
         <v>0001</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>40</v>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T4" s="11" t="str">
         <f t="shared" ref="T4:T16" si="1">D4&amp;E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4</f>
-        <v>000110000000000000000</v>
+        <v>000110000000000010000</v>
       </c>
       <c r="U4" s="12">
         <f t="shared" ref="U4:U16" si="2">BIN2DEC(LEFT(T4,LEN(T4)-16))*256*256+BIN2DEC(MID(T4,LEN(T4)-15,8))*256+BIN2DEC(MID(T4,LEN(T4)-7,8))</f>
-        <v>196608</v>
+        <v>196624</v>
       </c>
       <c r="V4" s="10" t="str">
         <f t="shared" ref="V4:V16" si="3">DEC2HEX(U4)</f>
-        <v>30000</v>
+        <v>30010</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1228,65 +1293,65 @@
         <f t="shared" si="0"/>
         <v>0010</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="19" t="s">
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="19" t="s">
-        <v>40</v>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="T5" s="2" t="str">
         <f>D5&amp;E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5</f>
-        <v>000110000000000000000</v>
+        <v>001100000000000000011</v>
       </c>
       <c r="U5" s="7">
         <f>BIN2DEC(LEFT(T5,LEN(T5)-16))*256*256+BIN2DEC(MID(T5,LEN(T5)-15,8))*256+BIN2DEC(MID(T5,LEN(T5)-7,8))</f>
-        <v>196608</v>
+        <v>393219</v>
       </c>
       <c r="V5" s="3" t="str">
         <f>DEC2HEX(U5)</f>
-        <v>30000</v>
+        <v>60003</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1300,65 +1365,65 @@
         <f t="shared" si="0"/>
         <v>0011</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>40</v>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="T6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>100000000001000000100</v>
       </c>
       <c r="U6" s="12">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>1049092</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>100204</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1372,65 +1437,65 @@
         <f t="shared" si="0"/>
         <v>0100</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>40</v>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>000001000100000000000</v>
       </c>
       <c r="U7" s="7">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>34816</v>
       </c>
       <c r="V7" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1444,65 +1509,65 @@
         <f t="shared" si="0"/>
         <v>0101</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="19" t="s">
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="19" t="s">
-        <v>40</v>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="T8" s="17" t="str">
         <f t="shared" ref="T8" si="4">D8&amp;E8&amp;F8&amp;G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8</f>
-        <v>000110000000000000000</v>
+        <v>001100000000000000110</v>
       </c>
       <c r="U8" s="12">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>393222</v>
       </c>
       <c r="V8" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>60006</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1516,70 +1581,70 @@
         <f t="shared" si="0"/>
         <v>0110</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>40</v>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T9" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>100000000010000000000</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>1049600</v>
       </c>
       <c r="V9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>100400</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B10" s="10">
         <v>7</v>
@@ -1588,70 +1653,70 @@
         <f t="shared" si="0"/>
         <v>0111</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="19" t="s">
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="19" t="s">
-        <v>40</v>
+      <c r="R10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="T10" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>001000000000001001000</v>
       </c>
       <c r="U10" s="12">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>262216</v>
       </c>
       <c r="V10" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>40048</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3">
         <v>8</v>
@@ -1660,65 +1725,65 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>40</v>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T11" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>000000100100000000000</v>
       </c>
       <c r="U11" s="7">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>18432</v>
       </c>
       <c r="V11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1732,65 +1797,65 @@
         <f t="shared" si="0"/>
         <v>1001</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="19" t="s">
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T12" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>011000000000100100000</v>
       </c>
       <c r="U12" s="12">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>786720</v>
       </c>
       <c r="V12" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>C0120</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1804,65 +1869,65 @@
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="19" t="s">
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>011000000000010100000</v>
       </c>
       <c r="U13" s="7">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>786592</v>
       </c>
       <c r="V13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>C00A0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -1876,65 +1941,65 @@
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="19" t="s">
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="19" t="s">
-        <v>40</v>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="T14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>001100000000000001100</v>
       </c>
       <c r="U14" s="12">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>393228</v>
       </c>
       <c r="V14" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>6000C</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1948,65 +2013,65 @@
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>40</v>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="T15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>000000000100000000000</v>
       </c>
       <c r="U15" s="7">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>2048</v>
       </c>
       <c r="V15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -2020,65 +2085,65 @@
         <f t="shared" si="0"/>
         <v>1101</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>40</v>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="T16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>000110000000000000000</v>
+        <v>000000000000000001101</v>
       </c>
       <c r="U16" s="12">
         <f t="shared" si="2"/>
-        <v>196608</v>
+        <v>13</v>
       </c>
       <c r="V16" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>D</v>
       </c>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.2">
@@ -2099,24 +2164,24 @@
     </row>
     <row r="21" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="4:20" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="29"/>
+      <c r="D22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="28"/>
     </row>
     <row r="23" spans="4:20" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2127,79 +2192,54 @@
     <mergeCell ref="D22:S22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="T2 Q17:S17 Q18:Q19 D2:Q4 D17:P21 Q21 D23:Q1048576 D3:S16">
-    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="1">
+  <conditionalFormatting sqref="T2 Q17:S17 Q18:Q19 D2:Q2 D17:P21 Q21 D23:Q1048576">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R4">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",R3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="17" priority="28" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S4">
-    <cfRule type="containsText" dxfId="11" priority="24" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",S3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R2:S2">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:Q15">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D5)))</formula>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R15">
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="1">
+  <conditionalFormatting sqref="D3:Q16">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R4">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",R3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R7 R9:R16">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",R5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S15">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",S5)))</formula>
+  <conditionalFormatting sqref="S3:S16">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:Q16">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",R16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",S16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R16">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",R5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S16">
+  <conditionalFormatting sqref="R8">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",S5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",R8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
